--- a/data-raw/normacog.xlsx
+++ b/data-raw/normacog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/GitHub/neuronorma/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAEC712-ACAE-7749-880D-0372125DB81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249B6A9-E0E4-784A-939E-D1E664091F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Age" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="97">
   <si>
     <t>SS</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>20-24</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,7 +371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1C2EBB-8362-9645-B110-F28D92007116}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
@@ -2359,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD1ADC0-39C1-5146-853B-75F39D4F50C6}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2389,6 @@
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -2770,8 +2771,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B22" s="1">
         <v>-3</v>
